--- a/biology/Botanique/Fagopyrum/Fagopyrum.xlsx
+++ b/biology/Botanique/Fagopyrum/Fagopyrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fagopyrum est un genre de plantes herbacées de la famille des Polygonacées, comprenant notamment Fagopyrum esculentum, espèce cultivée sous le nom de sarrasin pour ses graines assimilées à des céréales.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fagopyrum dibotrys, syn. F. cymosum, l'épinard d'Asie
 Fagopyrum esculentum Moench, le sarrasin ou blé noir
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 janvier 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 janvier 2020) :
 Fagopyrum acutatum (Lehm.) Mansf. ex K. Hammer
 Fagopyrum callianthum Ohnishi
 Fagopyrum capillatum Ohnishi
@@ -577,7 +593,7 @@
 Fagopyrum tibeticum (A. J. Li) Adr. Sanchez &amp; Jan. M. Burke
 Fagopyrum urophyllum Gross
 Fagopyrum wenchuanense J. R. Shao
-Selon The Plant List            (15 janvier 2020)[3] :
+Selon The Plant List            (15 janvier 2020) :
 Fagopyrum acutatum (Lehm.) Mansf. ex K.Hammer
 Fagopyrum callianthum Ohnishi
 Fagopyrum capillatum Ohnishi
@@ -604,7 +620,7 @@
 Fagopyrum tataricum (L.) Gaertn.
 Fagopyrum urophyllum (Bureau &amp; Franch.) Gross
 Fagopyrum zuogongense Q.F.Chen
-Selon Tropicos                                           (15 janvier 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 janvier 2020) (Attention liste brute contenant possiblement des synonymes) :
 Fagopyrum acutatum (Lehm.) Mansf. ex K. Hammer
 Fagopyrum baldschuanicum (Regel) Gross
 Fagopyrum bonatii (H. Lév.) H. Gross
